--- a/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Unguja.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Unguja.xlsx
@@ -8,43 +8,62 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C70EE42C-85DA-D242-B06B-55F35A222380}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D3545574-054E-EF4C-99B0-81A6CCCD780A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="842" firstSheet="26" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
-    <sheet name="Annual prevalence" sheetId="46" r:id="rId3"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId4"/>
-    <sheet name="Distributions" sheetId="5" r:id="rId5"/>
-    <sheet name="Incidence of conditions" sheetId="7" r:id="rId6"/>
-    <sheet name="Prevalence of anaemia" sheetId="29" r:id="rId7"/>
-    <sheet name="Distribution births" sheetId="36" r:id="rId8"/>
-    <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId9"/>
-    <sheet name="Relative risks" sheetId="26" r:id="rId10"/>
-    <sheet name="Odds ratios" sheetId="27" r:id="rId11"/>
-    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId12"/>
-    <sheet name="IYCF packages" sheetId="33" r:id="rId13"/>
-    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId14"/>
-    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId15"/>
-    <sheet name="Programs birth outcomes" sheetId="22" r:id="rId16"/>
-    <sheet name="Programs anaemia" sheetId="30" r:id="rId17"/>
-    <sheet name="Programs wasting" sheetId="31" r:id="rId18"/>
-    <sheet name="Programs for children" sheetId="28" r:id="rId19"/>
-    <sheet name="Programs family planning" sheetId="34" r:id="rId20"/>
-    <sheet name="Programs for PW" sheetId="38" r:id="rId21"/>
-    <sheet name="Programs birth age" sheetId="37" r:id="rId22"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId23"/>
-    <sheet name="Programs impacted population" sheetId="39" r:id="rId24"/>
-    <sheet name="Program dependencies" sheetId="40" r:id="rId25"/>
-    <sheet name="Program risk areas" sheetId="41" r:id="rId26"/>
-    <sheet name="Population risk areas" sheetId="42" r:id="rId27"/>
-    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId28"/>
-    <sheet name="Programs annual spending" sheetId="43" r:id="rId29"/>
-    <sheet name="Reference programs" sheetId="44" r:id="rId30"/>
-    <sheet name="Programs to include" sheetId="45" r:id="rId31"/>
+    <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
+    <sheet name="Baseline year demographics" sheetId="1" r:id="rId2"/>
+    <sheet name="Demographic projections" sheetId="2" r:id="rId3"/>
+    <sheet name="Annual prevalence" sheetId="46" r:id="rId4"/>
+    <sheet name="Causes of death" sheetId="4" r:id="rId5"/>
+    <sheet name="Distributions" sheetId="5" r:id="rId6"/>
+    <sheet name="Incidence of conditions" sheetId="7" r:id="rId7"/>
+    <sheet name="Prevalence of anaemia" sheetId="29" r:id="rId8"/>
+    <sheet name="Distribution births" sheetId="36" r:id="rId9"/>
+    <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId10"/>
+    <sheet name="Relative risks" sheetId="26" r:id="rId11"/>
+    <sheet name="Odds ratios" sheetId="27" r:id="rId12"/>
+    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId13"/>
+    <sheet name="IYCF packages" sheetId="33" r:id="rId14"/>
+    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId15"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId16"/>
+    <sheet name="Programs birth outcomes" sheetId="22" r:id="rId17"/>
+    <sheet name="Programs anaemia" sheetId="30" r:id="rId18"/>
+    <sheet name="Programs wasting" sheetId="31" r:id="rId19"/>
+    <sheet name="Programs for children" sheetId="28" r:id="rId20"/>
+    <sheet name="Programs family planning" sheetId="34" r:id="rId21"/>
+    <sheet name="Programs for PW" sheetId="38" r:id="rId22"/>
+    <sheet name="Programs birth age" sheetId="37" r:id="rId23"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId24"/>
+    <sheet name="Programs impacted population" sheetId="39" r:id="rId25"/>
+    <sheet name="Program dependencies" sheetId="40" r:id="rId26"/>
+    <sheet name="Program risk areas" sheetId="41" r:id="rId27"/>
+    <sheet name="Population risk areas" sheetId="42" r:id="rId28"/>
+    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId29"/>
+    <sheet name="Programs annual spending" sheetId="43" r:id="rId30"/>
+    <sheet name="Reference programs" sheetId="44" r:id="rId31"/>
+    <sheet name="Programs to include" sheetId="45" r:id="rId32"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId33"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="FPCov">'[1]Programs cost and coverage'!$B$6</definedName>
+    <definedName name="FPunmetNeed">'[1]Baseline year demographics'!$C$11</definedName>
+    <definedName name="FracEatingWheat">'[1]Baseline year demographics'!$C$27</definedName>
+    <definedName name="FracEatMaize">'[1]Baseline year demographics'!$C$28</definedName>
+    <definedName name="FracEatRice">'[1]Baseline year demographics'!$C$26</definedName>
+    <definedName name="FracPoor">'[1]Baseline year demographics'!$C$7</definedName>
+    <definedName name="FracRiskMalaria">'[1]Baseline year demographics'!$C$8</definedName>
+    <definedName name="FracSchoolAttendance">'[1]Baseline year demographics'!$C$6</definedName>
+    <definedName name="NumNonPW">'[1]Baseline year demographics'!$C$38:$C$41</definedName>
+    <definedName name="NumPW">'[1]Baseline year demographics'!$C$5</definedName>
+    <definedName name="PWDist">'[1]Baseline year demographics'!$C$50:$C$53</definedName>
+    <definedName name="PWPop">'[1]Baseline year demographics'!$C$44:$C$47</definedName>
+    <definedName name="WRAPop">'[1]Baseline year demographics'!$C$32:$C$35</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -58,12 +77,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Janka Petravic</author>
-    <author>Rowan</author>
-    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{2E39592D-B1A9-7A44-BCEC-BE38135F80C8}">
       <text>
         <r>
           <rPr>
@@ -92,11 +108,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>not sure this is needed anymore</t>
+          <t>Ensures that the 'current spending' value is equal to this.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{B46F7D59-8C75-DA4A-850E-0249C01B9B7C}">
       <text>
         <r>
           <rPr>
@@ -125,277 +141,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>fraction of women with secondary education</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:
-National poverty lines; for WDI poverty line it is 0.466
-Regional N/A, calculated from DHS wealth quintiles_x000D_
-_x000D_
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>per 1,000 live births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fraction of pregnancies ending in spontaneous abortion</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B21" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Number of stillbirths per 1000 TOTAL births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST has lower values for all mortalities based on UN Inter-Agency Group for child mortality estimation.
-UN IA GCME estimate: 18.8</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-GCME estimate from LiST:  35.2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B24" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-GCME estimate from LiST: 48.7</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C26" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Guesses</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A52" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Should add up to 1</t>
+          <t>Total funds that are available for program allocation</t>
         </r>
       </text>
     </comment>
@@ -407,9 +153,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
+    <author>Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -429,7 +176,211 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
+May not need these beyond calculation below</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST: 1.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick had these in the params documentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed same as stunting</t>
         </r>
       </text>
     </comment>
@@ -443,7 +394,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -463,26 +414,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-If user wants this, it must be checked for </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>all populations</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> b/c they are all targetted at once.</t>
+We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
         </r>
       </text>
     </comment>
@@ -494,16 +426,15 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -512,87 +443,31 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.5*unit cost of BFP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cost of BF + CFE for Tanzania</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000003000000}">
-      <text>
+If user wants this, it must be checked for </t>
+        </r>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>all populations</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Totally fictional</t>
+          <t xml:space="preserve"> b/c they are all targetted at once.</t>
         </r>
       </text>
     </comment>
@@ -603,124 +478,28 @@
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
-    <author>Microsoft Office User</author>
+    <author>Sam</author>
+    <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Poor pregnant women - all target population</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000005000000}">
-      <text>
-        <r>
-          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
+          </rPr>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -728,11 +507,77 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>% at risk from malaria</t>
+          </rPr>
+          <t>1.5*unit cost of BFP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cost of BF + CFE for Tanzania</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Totally fictional</t>
         </r>
       </text>
     </comment>
@@ -745,10 +590,9 @@
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
-    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -768,57 +612,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+Poor pregnant women - all target population</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This RR is from the book.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000003000000}">
+    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -828,9 +626,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -840,11 +636,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000004000000}">
+    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -854,9 +650,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -866,11 +660,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000005000000}">
+    <comment ref="C15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -880,9 +674,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -892,488 +684,40 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000006000000}">
+    <comment ref="D15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000005000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+        <r>
+          <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Source: WHO guidelines on sprinkles</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Effect on iron-deficiency anemia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Effect on iron-deficiency anemia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Only in malaria risk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-made this number up
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Same effect as iron fortification</t>
+            <scheme val="minor"/>
+          </rPr>
+          <t>% at risk from malaria</t>
         </r>
       </text>
     </comment>
@@ -1384,44 +728,82 @@
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
+    <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Microsoft Office User: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This RR is from the book.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Used RR from params and AF above</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000002000000}">
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1431,7 +813,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1441,44 +825,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Probably can delete</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick had RR in params doc, I fixed AF and solved for Eff</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1200-000004000000}">
+    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1488,7 +839,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1498,11 +851,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-WHO statement</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000005000000}">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1512,7 +865,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1522,11 +877,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000006000000}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1536,7 +915,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1546,73 +927,438 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000007000000}">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>frac zinc deficient</t>
-        </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000008000000}">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>frac zinc deficient</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Source: WHO guidelines on sprinkles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only in malaria risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+made this number up
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
         </r>
       </text>
     </comment>
@@ -1623,30 +1369,235 @@
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Ruth</author>
+    <author>Sam</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000001000000}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Used RR from params and AF above</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Ruth made these numbers up</t>
+Probably can delete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick had RR in params doc, I fixed AF and solved for Eff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WHO statement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>frac zinc deficient</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>frac zinc deficient</t>
         </r>
       </text>
     </comment>
@@ -1657,11 +1608,10 @@
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
     <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1671,7 +1621,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+          <t>Ruth:</t>
         </r>
         <r>
           <rPr>
@@ -1681,33 +1631,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-assume target pop is WRA &lt;18 years, then this is just  birth age distribution for
- this age
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-made numbers up for effectiveness</t>
+Ruth made these numbers up</t>
         </r>
       </text>
     </comment>
@@ -1718,84 +1642,11 @@
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
     <author xml:space="preserve"> Janka Petravic</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Frac poor
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Frac food insecure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000004000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1815,11 +1666,13 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+assume target pop is WRA &lt;18 years, then this is just  birth age distribution for
+ this age
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000005000000}">
+    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1829,7 +1682,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+          <t>Ruth:</t>
         </r>
         <r>
           <rPr>
@@ -1839,65 +1692,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Also brestfeeding women up to 6 months?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Coverage of these interventions is mutually exclusive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Exposed to malaria
-</t>
+made numbers up for effectiveness</t>
         </r>
       </text>
     </comment>
@@ -1909,11 +1704,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Microsoft Office User</author>
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000001000000}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1933,11 +1727,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-When one intervention cannot exceed 1-cov of another</t>
+Frac poor
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000002000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1957,11 +1752,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-When one program cannot exceed cov of another</t>
+Fraction poor</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1800-000003000000}">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1971,7 +1766,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
@@ -1981,11 +1776,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Same effect as iron fortification</t>
+Frac food insecure</t>
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000004000000}">
+    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2005,11 +1800,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-There is no unit cost for this to impact the budget.</t>
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000005000000}">
+    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2029,11 +1824,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-There is no unit cost for this to impact the budget.</t>
+Also brestfeeding women up to 6 months?</t>
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000006000000}">
+    <comment ref="A23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2053,31 +1848,41 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Also brestfeeding women up to 6 months?</t>
+Coverage of these interventions is mutually exclusive</t>
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000007000000}">
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Exposed to malaria
+</t>
         </r>
       </text>
     </comment>
@@ -2088,10 +1893,195 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Sam</author>
+    <author>Janka Petravic</author>
+    <author>Rowan</author>
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not sure this is needed anymore</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fraction of women with secondary education</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:
+National poverty lines; for WDI poverty line it is 0.466
+Regional N/A, calculated from DHS wealth quintiles_x000D_
+_x000D_
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>per 1,000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fraction of pregnancies ending in spontaneous abortion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2111,11 +2101,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calculated</t>
+Number of stillbirths per 1000 TOTAL births</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2135,11 +2125,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calculated</t>
+LiST has lower values for all mortalities based on UN Inter-Agency Group for child mortality estimation.
+UN IA GCME estimate: 18.8</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="B23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2159,7 +2150,88 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calculated</t>
+GCME estimate from LiST:  35.2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+GCME estimate from LiST: 48.7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Guesses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A52" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Should add up to 1</t>
         </r>
       </text>
     </comment>
@@ -2168,6 +2240,186 @@
 </file>
 
 <file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+    <author>Microsoft Office User</author>
+    <author xml:space="preserve"> Janka Petravic</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+When one intervention cannot exceed 1-cov of another</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+When one program cannot exceed cov of another</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1800-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There is no unit cost for this to impact the budget.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There is no unit cost for this to impact the budget.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Also brestfeeding women up to 6 months?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ruth</author>
@@ -2989,51 +3241,6 @@
             <family val="2"/>
           </rPr>
           <t>DHS</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="12"/>
-            <color rgb="FF7F7F7F"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is the calibration year and uses baseline coverage.</t>
         </r>
       </text>
     </comment>
@@ -3047,6 +3254,51 @@
     <author>Sam</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="12"/>
+            <color rgb="FF7F7F7F"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is the calibration year and uses baseline coverage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000001000000}">
       <text>
         <r>
@@ -3078,30 +3330,78 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-We don't model deaths through severe diarrhoea specifically, only deaths through diarrhoea</t>
+calculated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
         </r>
       </text>
     </comment>
@@ -3112,222 +3412,30 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
+    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST has higher values 'recalculated across countries for consistency'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 13.56</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 7.11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 5.47</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 1.97</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 4.01</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 2.84</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 1.49</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 0.79</t>
+We don't model deaths through severe diarrhoea specifically, only deaths through diarrhoea</t>
         </r>
       </text>
     </comment>
@@ -3339,10 +3447,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
-    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3362,40 +3469,199 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST &amp; DHS</t>
+LiST has higher values 'recalculated across countries for consistency'</t>
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>From Jakub's book, annual incidence of severe acute wasting is annual prevalence * 2.6  (p. 147). Assuming the same to be true for moderate wasting.</t>
+LiST 13.56</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 7.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 5.47</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 1.97</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 4.01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 2.84</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 1.49</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 0.79</t>
         </r>
       </text>
     </comment>
@@ -3406,93 +3672,35 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author xml:space="preserve"> Janka Petravic</author>
     <author>Sam</author>
-    <author>Nick</author>
-    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Using prevalence of iron-deficient anaemia</t>
+LiST &amp; DHS</t>
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fictional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3521,217 +3729,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Fictional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stevens: 42% of global childhood anemia is ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST, includes mild</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST, includes mild</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
+          <t>From Jakub's book, annual incidence of severe acute wasting is annual prevalence * 2.6  (p. 147). Assuming the same to be true for moderate wasting.</t>
         </r>
       </text>
     </comment>
@@ -3742,10 +3740,207 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Sam</author>
     <author>Nick</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Using prevalence of iron-deficient anaemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fictional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fictional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stevens: 42% of global childhood anemia is ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST, includes mild</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST, includes mild</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -3765,7 +3960,112 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS</t>
         </r>
       </text>
     </comment>
@@ -3776,54 +4076,30 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
+    <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Term AGA should be given by a formula in the spreadsheet. The result should be greyed to indicate that it is calculated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Kozuki 2012, for hematocrit &lt;90g/L</t>
+LiST</t>
         </r>
       </text>
     </comment>
@@ -3834,35 +4110,10 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
-    <author>Janka Petravic</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-May not need these beyond calculation below</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3872,7 +4123,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Janka Petravic:</t>
+          <t xml:space="preserve"> Janka Petravic:</t>
         </r>
         <r>
           <rPr>
@@ -3882,187 +4133,31 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST: 1.11</t>
+Term AGA should be given by a formula in the spreadsheet. The result should be greyed to indicate that it is calculated.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick had these in the params documentation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed same as stunting</t>
+Kozuki 2012, for hematocrit &lt;90g/L</t>
         </r>
       </text>
     </comment>
@@ -4071,7 +4166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="275">
   <si>
     <t>year</t>
   </si>
@@ -4888,6 +4983,15 @@
   <si>
     <t>Kangaroo mother care</t>
   </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Current expenditure</t>
+  </si>
+  <si>
+    <t>Available budget</t>
+  </si>
 </sst>
 </file>
 
@@ -5359,7 +5463,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="739">
+  <cellStyleXfs count="740">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6099,8 +6203,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6347,8 +6452,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="739">
+  <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -7087,6 +7196,7 @@
     <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="739" xr:uid="{6792B6A8-9670-4246-8BC5-838F3ECEA1E8}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8182,6 +8292,210 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Baseline year demographics"/>
+      <sheetName val="Demographic projections"/>
+      <sheetName val="Annual prevalence"/>
+      <sheetName val="Causes of death"/>
+      <sheetName val="Incidence of conditions"/>
+      <sheetName val="Prevalence of anaemia"/>
+      <sheetName val="Distributions"/>
+      <sheetName val="Distribution births"/>
+      <sheetName val="Birth outcomes &amp; risks"/>
+      <sheetName val="IYCF packages"/>
+      <sheetName val="IYCF cost &amp; coverage"/>
+      <sheetName val="Programs to include"/>
+      <sheetName val="Program dependencies"/>
+      <sheetName val="Programs annual scale-up"/>
+      <sheetName val="Programs annual spending"/>
+      <sheetName val="Reference programs"/>
+      <sheetName val="Programs cost and coverage"/>
+      <sheetName val="Expenditure &amp; budget"/>
+      <sheetName val="Appropriate breastfeeding"/>
+      <sheetName val="IYCF package odds ratios"/>
+      <sheetName val="Relative risks"/>
+      <sheetName val="Odds ratios"/>
+      <sheetName val="Programs birth outcomes"/>
+      <sheetName val="Programs anaemia"/>
+      <sheetName val="Programs wasting"/>
+      <sheetName val="Programs for children"/>
+      <sheetName val="Programs family planning"/>
+      <sheetName val="Programs for PW"/>
+      <sheetName val="Programs birth age"/>
+      <sheetName val="Programs target population"/>
+      <sheetName val="Programs impacted population"/>
+      <sheetName val="Program risk areas"/>
+      <sheetName val="Population risk areas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>3677298.8269880489</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>0.35199999999999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>0.36</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>8634000</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>13550000</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>12394000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>9148000</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>7531583.5695012193</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>11617337.925466225</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>11797902.113393042</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>9101877.564651465</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>1102416.4304987811</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>1932662.074533775</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>596097.88660695858</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>46122.435348534098</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>0.29978973218277538</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>0.52556568434139284</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>0.16210210664201097</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>1.2542476833820825E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16">
+        <row r="6">
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8503,430 +8817,610 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F56FEFA-6EF5-6B40-8F57-E0F8029ED71C}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.5" style="157" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="157" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="157"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="156" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="156" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="156" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="158"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="156" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="159"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C37"/>
+      <selection activeCell="B12" sqref="B12:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="132">
-        <v>21933.060087447877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="132">
-        <v>4003.9474612418558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="133" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="132">
-        <f>'Demographic projections'!I2</f>
-        <v>4813.298585460614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="95">
-        <v>0.71699999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1.5119999647140503E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="22">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0.46700000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="22">
-        <f>(0.221 * 8210 + 0.245*928) / (8210+928)</f>
-        <v>0.22343729481286934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="47">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="4"/>
-      <c r="C16" s="128"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="89" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="13">
-        <v>4.9400000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="129" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="129" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="89" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" s="13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="89" t="s">
-        <v>269</v>
-      </c>
-      <c r="C23" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="89" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" s="13">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="23"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="23"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="23"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="23">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="23"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="18"/>
-      <c r="C32" s="94"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="14">
-        <v>6265.7174132153059</v>
-      </c>
-      <c r="D34" s="91"/>
-      <c r="E34" s="92"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="14">
-        <v>10072.115108250095</v>
-      </c>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="14">
-        <v>7098.4805183191456</v>
-      </c>
-      <c r="D36" s="91"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="14">
-        <v>4438.3390959964609</v>
-      </c>
-      <c r="D37" s="91"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="90"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="91"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="90"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="91"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="130">
-        <f>C34-C46</f>
-        <v>5654.2107594320514</v>
-      </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="92"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="130">
-        <f>C35-C47</f>
-        <v>7894.7808106885077</v>
-      </c>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="130">
-        <f t="shared" ref="C42:C43" si="0">C36-C48</f>
-        <v>5490.9592390555918</v>
-      </c>
-      <c r="D42" s="91"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="130">
-        <f t="shared" si="0"/>
-        <v>4021.4027411442421</v>
-      </c>
-      <c r="D43" s="91"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="90"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="91"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="90"/>
-      <c r="C45" s="26"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="131">
-        <f>C52*C$6</f>
-        <v>611.50665378325414</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="131">
-        <f t="shared" ref="C47:C49" si="1">C53*C$6</f>
-        <v>2177.3342975615869</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="131">
-        <f t="shared" si="1"/>
-        <v>1607.5212792635543</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="131">
-        <f t="shared" si="1"/>
-        <v>416.93635485221876</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="22">
-        <v>0.12704523580365737</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="22">
-        <v>0.4523580365736285</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="22">
-        <v>0.33397497593840231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="22">
-        <v>8.662175168431184E-2</v>
-      </c>
+      <c r="C1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="148">
+        <f>1-D2-E2-F2</f>
+        <v>0.78334883720930237</v>
+      </c>
+      <c r="D2" s="149">
+        <v>0.12611627906976747</v>
+      </c>
+      <c r="E2" s="149">
+        <v>7.5986046511627922E-2</v>
+      </c>
+      <c r="F2" s="149">
+        <v>1.4548837209302327E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="11">
+        <v>1.53</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1.32</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="36">
+        <v>2.52</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1.96</v>
+      </c>
+      <c r="F7" s="36">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+      <c r="D8" s="36">
+        <v>2.52</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1.96</v>
+      </c>
+      <c r="F8" s="36">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F14" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>999.99</v>
+      </c>
+      <c r="F16" s="5">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="67">
+        <v>1</v>
+      </c>
+      <c r="D23" s="67">
+        <v>1.52</v>
+      </c>
+      <c r="E23" s="67">
+        <v>1.75</v>
+      </c>
+      <c r="F23" s="67">
+        <v>3.14</v>
+      </c>
+      <c r="G23" s="68"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="67">
+        <v>1</v>
+      </c>
+      <c r="D24" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="E24" s="67">
+        <v>1.4</v>
+      </c>
+      <c r="F24" s="67">
+        <v>1.6</v>
+      </c>
+      <c r="G24" s="68"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="67">
+        <v>1</v>
+      </c>
+      <c r="D25" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="67">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="67">
+        <v>1.6</v>
+      </c>
+      <c r="G25" s="68"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="67">
+        <v>1</v>
+      </c>
+      <c r="D26" s="67">
+        <v>1.52</v>
+      </c>
+      <c r="E26" s="67">
+        <v>1.75</v>
+      </c>
+      <c r="F26" s="67">
+        <v>1.73</v>
+      </c>
+      <c r="G26" s="68"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="67">
+        <v>1</v>
+      </c>
+      <c r="D27" s="67">
+        <v>1</v>
+      </c>
+      <c r="E27" s="67">
+        <v>1</v>
+      </c>
+      <c r="F27" s="67">
+        <v>1</v>
+      </c>
+      <c r="G27" s="68"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="67">
+        <v>1</v>
+      </c>
+      <c r="D28" s="67">
+        <v>1</v>
+      </c>
+      <c r="E28" s="67">
+        <v>1</v>
+      </c>
+      <c r="F28" s="67">
+        <v>1</v>
+      </c>
+      <c r="G28" s="68"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="67">
+        <v>1</v>
+      </c>
+      <c r="D29" s="67">
+        <v>1.52</v>
+      </c>
+      <c r="E29" s="67">
+        <v>1.75</v>
+      </c>
+      <c r="F29" s="67">
+        <v>1.52</v>
+      </c>
+      <c r="G29" s="68"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="67">
+        <v>1</v>
+      </c>
+      <c r="D30" s="67">
+        <v>1</v>
+      </c>
+      <c r="E30" s="67">
+        <v>1.33</v>
+      </c>
+      <c r="F30" s="67">
+        <v>1</v>
+      </c>
+      <c r="G30" s="68"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="67">
+        <v>1</v>
+      </c>
+      <c r="D31" s="67">
+        <v>1</v>
+      </c>
+      <c r="E31" s="67">
+        <v>1.33</v>
+      </c>
+      <c r="F31" s="67">
+        <v>1</v>
+      </c>
+      <c r="G31" s="68"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="63"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="10"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="68"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="67">
+        <v>1</v>
+      </c>
+      <c r="D35" s="70">
+        <v>1</v>
+      </c>
+      <c r="E35" s="70">
+        <v>1</v>
+      </c>
+      <c r="F35" s="70">
+        <v>1</v>
+      </c>
+      <c r="G35" s="68"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="67">
+        <v>1</v>
+      </c>
+      <c r="D36" s="70">
+        <v>1.41</v>
+      </c>
+      <c r="E36" s="70">
+        <v>1.49</v>
+      </c>
+      <c r="F36" s="70">
+        <v>3.03</v>
+      </c>
+      <c r="G36" s="68"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="67">
+        <v>1</v>
+      </c>
+      <c r="D37" s="70">
+        <v>1.18</v>
+      </c>
+      <c r="E37" s="70">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F37" s="70">
+        <v>1.77</v>
+      </c>
+      <c r="G37" s="68"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="67">
+        <v>1</v>
+      </c>
+      <c r="D38" s="70">
+        <v>1</v>
+      </c>
+      <c r="E38" s="70">
+        <v>1</v>
+      </c>
+      <c r="F38" s="70">
+        <v>1</v>
+      </c>
+      <c r="G38" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8940,7 +9434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -13001,7 +13495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -13411,7 +13905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -14517,11 +15011,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14532,6 +15021,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14543,7 +15037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -14763,7 +15257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -14960,7 +15454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -15043,7 +15537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15356,7 +15850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16688,7 +17182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16784,7 +17278,445 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="132">
+        <v>21933.060087447877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="132">
+        <v>4003.9474612418558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="133" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="132">
+        <f>'Demographic projections'!I2</f>
+        <v>4813.298585460614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="95">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1.5119999647140503E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="22">
+        <f>(0.221 * 8210 + 0.245*928) / (8210+928)</f>
+        <v>0.22343729481286934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="128"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="13">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="13">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="18"/>
+      <c r="C32" s="94"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="14">
+        <v>6265.7174132153059</v>
+      </c>
+      <c r="D34" s="91"/>
+      <c r="E34" s="92"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="14">
+        <v>10072.115108250095</v>
+      </c>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="14">
+        <v>7098.4805183191456</v>
+      </c>
+      <c r="D36" s="91"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="14">
+        <v>4438.3390959964609</v>
+      </c>
+      <c r="D37" s="91"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="90"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="91"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="90"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="91"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="130">
+        <f>C34-C46</f>
+        <v>5654.2107594320514</v>
+      </c>
+      <c r="D40" s="91"/>
+      <c r="E40" s="92"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="130">
+        <f>C35-C47</f>
+        <v>7894.7808106885077</v>
+      </c>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="130">
+        <f t="shared" ref="C42:C43" si="0">C36-C48</f>
+        <v>5490.9592390555918</v>
+      </c>
+      <c r="D42" s="91"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="130">
+        <f t="shared" si="0"/>
+        <v>4021.4027411442421</v>
+      </c>
+      <c r="D43" s="91"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="90"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="91"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="90"/>
+      <c r="C45" s="26"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="131">
+        <f>C52*C$6</f>
+        <v>611.50665378325414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="131">
+        <f t="shared" ref="C47:C49" si="1">C53*C$6</f>
+        <v>2177.3342975615869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="131">
+        <f t="shared" si="1"/>
+        <v>1607.5212792635543</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="131">
+        <f t="shared" si="1"/>
+        <v>416.93635485221876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="22">
+        <v>0.12704523580365737</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="22">
+        <v>0.4523580365736285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="22">
+        <v>0.33397497593840231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="22">
+        <v>8.662175168431184E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18059,608 +18991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="80">
-        <v>4081.3729999999996</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="14">
-        <v>6265.7174132153059</v>
-      </c>
-      <c r="E2" s="14">
-        <v>10072.115108250095</v>
-      </c>
-      <c r="F2" s="14">
-        <v>7098.4805183191456</v>
-      </c>
-      <c r="G2" s="14">
-        <v>4438.3390959964609</v>
-      </c>
-      <c r="H2" s="135">
-        <f>D2+E2+F2+G2</f>
-        <v>27874.652135781005</v>
-      </c>
-      <c r="I2" s="136">
-        <f t="shared" ref="I2:I15" si="0">(B2 + 25.36*B2/(1000-25.36))/(1-0.13)</f>
-        <v>4813.298585460614</v>
-      </c>
-      <c r="J2" s="137">
-        <f t="shared" ref="J2:J15" si="1">D2/H2</f>
-        <v>0.22478190517658095</v>
-      </c>
-      <c r="K2" s="135">
-        <f>H2-I2</f>
-        <v>23061.353550320389</v>
-      </c>
-      <c r="L2" s="134"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="80">
-        <v>4158.7449999999999</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="14">
-        <v>6536.5959503001213</v>
-      </c>
-      <c r="E3" s="14">
-        <v>10361.592144340415</v>
-      </c>
-      <c r="F3" s="14">
-        <v>7350.6784304503553</v>
-      </c>
-      <c r="G3" s="14">
-        <v>4658.220528511778</v>
-      </c>
-      <c r="H3" s="135">
-        <f t="shared" ref="H3:H15" si="2">D3+E3+F3+G3</f>
-        <v>28907.08705360267</v>
-      </c>
-      <c r="I3" s="136">
-        <f t="shared" si="0"/>
-        <v>4904.545952009631</v>
-      </c>
-      <c r="J3" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22612433892696462</v>
-      </c>
-      <c r="K3" s="135">
-        <f t="shared" ref="K3:K15" si="3">H3-I3</f>
-        <v>24002.54110159304</v>
-      </c>
-      <c r="L3" s="134"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="80">
-        <v>4255.46</v>
-      </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="14">
-        <v>6819.1850668787474</v>
-      </c>
-      <c r="E4" s="14">
-        <v>10659.388878281985</v>
-      </c>
-      <c r="F4" s="14">
-        <v>7611.83654000962</v>
-      </c>
-      <c r="G4" s="14">
-        <v>4888.9951900750057</v>
-      </c>
-      <c r="H4" s="135">
-        <f t="shared" si="2"/>
-        <v>29979.405675245358</v>
-      </c>
-      <c r="I4" s="136">
-        <f t="shared" si="0"/>
-        <v>5018.6051601959016</v>
-      </c>
-      <c r="J4" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22746231665658054</v>
-      </c>
-      <c r="K4" s="135">
-        <f t="shared" si="3"/>
-        <v>24960.800515049457</v>
-      </c>
-      <c r="L4" s="134"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="80">
-        <v>4332.8319999999994</v>
-      </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="14">
-        <v>7113.9910329331351</v>
-      </c>
-      <c r="E5" s="14">
-        <v>10965.744421865054</v>
-      </c>
-      <c r="F5" s="14">
-        <v>7882.2731887994996</v>
-      </c>
-      <c r="G5" s="14">
-        <v>5131.2027462583246</v>
-      </c>
-      <c r="H5" s="135">
-        <f t="shared" si="2"/>
-        <v>31093.211389856013</v>
-      </c>
-      <c r="I5" s="136">
-        <f t="shared" si="0"/>
-        <v>5109.8525267449168</v>
-      </c>
-      <c r="J5" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22879563463985053</v>
-      </c>
-      <c r="K5" s="135">
-        <f t="shared" si="3"/>
-        <v>25983.358863111098</v>
-      </c>
-      <c r="L5" s="134"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="80">
-        <v>4410.2039999999997</v>
-      </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="14">
-        <v>7335.6628394612235</v>
-      </c>
-      <c r="E6" s="14">
-        <v>11362.840366017535</v>
-      </c>
-      <c r="F6" s="14">
-        <v>8137.0869568293947</v>
-      </c>
-      <c r="G6" s="14">
-        <v>5358.3640113682632</v>
-      </c>
-      <c r="H6" s="135">
-        <f t="shared" si="2"/>
-        <v>32193.954173676415</v>
-      </c>
-      <c r="I6" s="136">
-        <f t="shared" si="0"/>
-        <v>5201.0998932939337</v>
-      </c>
-      <c r="J6" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22785839850201667</v>
-      </c>
-      <c r="K6" s="135">
-        <f t="shared" si="3"/>
-        <v>26992.854280382482</v>
-      </c>
-      <c r="L6" s="134"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="80">
-        <v>4506.9189999999999</v>
-      </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="14">
-        <v>7564.2419346802799</v>
-      </c>
-      <c r="E7" s="14">
-        <v>11774.316108093079</v>
-      </c>
-      <c r="F7" s="14">
-        <v>8400.1382034168528</v>
-      </c>
-      <c r="G7" s="14">
-        <v>5595.5818349340097</v>
-      </c>
-      <c r="H7" s="135">
-        <f t="shared" si="2"/>
-        <v>33334.278081124219</v>
-      </c>
-      <c r="I7" s="136">
-        <f t="shared" si="0"/>
-        <v>5315.1591014802043</v>
-      </c>
-      <c r="J7" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22692082655192067</v>
-      </c>
-      <c r="K7" s="135">
-        <f t="shared" si="3"/>
-        <v>28019.118979644016</v>
-      </c>
-      <c r="L7" s="134"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="80">
-        <v>4603.634</v>
-      </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="14">
-        <v>7799.9435495563321</v>
-      </c>
-      <c r="E8" s="14">
-        <v>12200.692375113333</v>
-      </c>
-      <c r="F8" s="14">
-        <v>8671.6932252126044</v>
-      </c>
-      <c r="G8" s="14">
-        <v>5843.3014265203465</v>
-      </c>
-      <c r="H8" s="135">
-        <f t="shared" si="2"/>
-        <v>34515.630576402618</v>
-      </c>
-      <c r="I8" s="136">
-        <f t="shared" si="0"/>
-        <v>5429.2183096664749</v>
-      </c>
-      <c r="J8" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22598293640588846</v>
-      </c>
-      <c r="K8" s="135">
-        <f t="shared" si="3"/>
-        <v>29086.412266736144</v>
-      </c>
-      <c r="L8" s="134"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B9" s="80">
-        <v>4681.0059999999994</v>
-      </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="14">
-        <v>8042.9896216476509</v>
-      </c>
-      <c r="E9" s="14">
-        <v>12642.508750876137</v>
-      </c>
-      <c r="F9" s="14">
-        <v>8952.0269275582177</v>
-      </c>
-      <c r="G9" s="14">
-        <v>6101.9877053728032</v>
-      </c>
-      <c r="H9" s="135">
-        <f t="shared" si="2"/>
-        <v>35739.513005454806</v>
-      </c>
-      <c r="I9" s="136">
-        <f t="shared" si="0"/>
-        <v>5520.4656762154909</v>
-      </c>
-      <c r="J9" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22504474586489401</v>
-      </c>
-      <c r="K9" s="135">
-        <f t="shared" si="3"/>
-        <v>30219.047329239314</v>
-      </c>
-      <c r="L9" s="134"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="80">
-        <v>4797.0639999999994</v>
-      </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="14">
-        <v>8293.6090040820145</v>
-      </c>
-      <c r="E10" s="14">
-        <v>13100.324358804679</v>
-      </c>
-      <c r="F10" s="14">
-        <v>9241.4231027830974</v>
-      </c>
-      <c r="G10" s="14">
-        <v>6372.1261729764365</v>
-      </c>
-      <c r="H10" s="135">
-        <f t="shared" si="2"/>
-        <v>37007.48263864623</v>
-      </c>
-      <c r="I10" s="136">
-        <f t="shared" si="0"/>
-        <v>5657.336726039016</v>
-      </c>
-      <c r="J10" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22410627291414714</v>
-      </c>
-      <c r="K10" s="135">
-        <f t="shared" si="3"/>
-        <v>31350.145912607215</v>
-      </c>
-      <c r="L10" s="134"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2026</v>
-      </c>
-      <c r="B11" s="80">
-        <v>4893.7789999999995</v>
-      </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="14">
-        <v>8543.3547547239614</v>
-      </c>
-      <c r="E11" s="14">
-        <v>13587.83818452255</v>
-      </c>
-      <c r="F11" s="14">
-        <v>9516.7004653877702</v>
-      </c>
-      <c r="G11" s="14">
-        <v>6607.7205830436706</v>
-      </c>
-      <c r="H11" s="135">
-        <f t="shared" si="2"/>
-        <v>38255.613987677949</v>
-      </c>
-      <c r="I11" s="136">
-        <f t="shared" si="0"/>
-        <v>5771.3959342252856</v>
-      </c>
-      <c r="J11" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22332290255426976</v>
-      </c>
-      <c r="K11" s="135">
-        <f t="shared" si="3"/>
-        <v>32484.218053452663</v>
-      </c>
-      <c r="L11" s="134"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>2027</v>
-      </c>
-      <c r="B12" s="80">
-        <v>4990.4939999999997</v>
-      </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="14">
-        <v>8800.6211082702666</v>
-      </c>
-      <c r="E12" s="14">
-        <v>14093.494288534954</v>
-      </c>
-      <c r="F12" s="14">
-        <v>9800.1776069139123</v>
-      </c>
-      <c r="G12" s="14">
-        <v>6852.0255434905121</v>
-      </c>
-      <c r="H12" s="135">
-        <f t="shared" si="2"/>
-        <v>39546.318547209645</v>
-      </c>
-      <c r="I12" s="136">
-        <f t="shared" si="0"/>
-        <v>5885.4551424115571</v>
-      </c>
-      <c r="J12" s="137">
-        <f t="shared" si="1"/>
-        <v>0.2225395797023243</v>
-      </c>
-      <c r="K12" s="135">
-        <f t="shared" si="3"/>
-        <v>33660.863404798089</v>
-      </c>
-      <c r="L12" s="134"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>2028</v>
-      </c>
-      <c r="B13" s="80">
-        <v>5087.2089999999998</v>
-      </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="14">
-        <v>9065.6345329106771</v>
-      </c>
-      <c r="E13" s="14">
-        <v>14617.967815308268</v>
-      </c>
-      <c r="F13" s="14">
-        <v>10092.098776920315</v>
-      </c>
-      <c r="G13" s="14">
-        <v>7105.3631064738611</v>
-      </c>
-      <c r="H13" s="135">
-        <f t="shared" si="2"/>
-        <v>40881.06423161312</v>
-      </c>
-      <c r="I13" s="136">
-        <f t="shared" si="0"/>
-        <v>5999.5143505978276</v>
-      </c>
-      <c r="J13" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22175632418835781</v>
-      </c>
-      <c r="K13" s="135">
-        <f t="shared" si="3"/>
-        <v>34881.549881015293</v>
-      </c>
-      <c r="L13" s="134"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>2029</v>
-      </c>
-      <c r="B14" s="80">
-        <v>5203.2669999999998</v>
-      </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="14">
-        <v>9338.6283164798042</v>
-      </c>
-      <c r="E14" s="14">
-        <v>15161.959034050265</v>
-      </c>
-      <c r="F14" s="14">
-        <v>10392.715500509112</v>
-      </c>
-      <c r="G14" s="14">
-        <v>7368.0672312732722</v>
-      </c>
-      <c r="H14" s="135">
-        <f t="shared" si="2"/>
-        <v>42261.370082312453</v>
-      </c>
-      <c r="I14" s="136">
-        <f t="shared" si="0"/>
-        <v>6136.3854004213517</v>
-      </c>
-      <c r="J14" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22097315582270433</v>
-      </c>
-      <c r="K14" s="135">
-        <f t="shared" si="3"/>
-        <v>36124.984681891103</v>
-      </c>
-      <c r="L14" s="134"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>2030</v>
-      </c>
-      <c r="B15" s="80">
-        <v>5299.982</v>
-      </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="14">
-        <v>9619.8427718173389</v>
-      </c>
-      <c r="E15" s="14">
-        <v>15726.19427369909</v>
-      </c>
-      <c r="F15" s="14">
-        <v>10702.286795044829</v>
-      </c>
-      <c r="G15" s="14">
-        <v>7640.484224528871</v>
-      </c>
-      <c r="H15" s="135">
-        <f t="shared" si="2"/>
-        <v>43688.808065090125</v>
-      </c>
-      <c r="I15" s="136">
-        <f t="shared" si="0"/>
-        <v>6250.4446086076232</v>
-      </c>
-      <c r="J15" s="137">
-        <f t="shared" si="1"/>
-        <v>0.22019009439408688</v>
-      </c>
-      <c r="K15" s="135">
-        <f t="shared" si="3"/>
-        <v>37438.363456482504</v>
-      </c>
-      <c r="L15" s="134"/>
-    </row>
-    <row r="18" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="91"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18827,7 +19158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -19009,7 +19340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -19095,7 +19426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
@@ -21539,7 +21870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:O57"/>
   <sheetViews>
@@ -24006,7 +24337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -24264,7 +24595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
@@ -24822,7 +25153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -25122,7 +25453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
@@ -25882,7 +26213,608 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="80">
+        <v>4081.3729999999996</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="14">
+        <v>6265.7174132153059</v>
+      </c>
+      <c r="E2" s="14">
+        <v>10072.115108250095</v>
+      </c>
+      <c r="F2" s="14">
+        <v>7098.4805183191456</v>
+      </c>
+      <c r="G2" s="14">
+        <v>4438.3390959964609</v>
+      </c>
+      <c r="H2" s="135">
+        <f>D2+E2+F2+G2</f>
+        <v>27874.652135781005</v>
+      </c>
+      <c r="I2" s="136">
+        <f t="shared" ref="I2:I15" si="0">(B2 + 25.36*B2/(1000-25.36))/(1-0.13)</f>
+        <v>4813.298585460614</v>
+      </c>
+      <c r="J2" s="137">
+        <f t="shared" ref="J2:J15" si="1">D2/H2</f>
+        <v>0.22478190517658095</v>
+      </c>
+      <c r="K2" s="135">
+        <f>H2-I2</f>
+        <v>23061.353550320389</v>
+      </c>
+      <c r="L2" s="134"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="80">
+        <v>4158.7449999999999</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="14">
+        <v>6536.5959503001213</v>
+      </c>
+      <c r="E3" s="14">
+        <v>10361.592144340415</v>
+      </c>
+      <c r="F3" s="14">
+        <v>7350.6784304503553</v>
+      </c>
+      <c r="G3" s="14">
+        <v>4658.220528511778</v>
+      </c>
+      <c r="H3" s="135">
+        <f t="shared" ref="H3:H15" si="2">D3+E3+F3+G3</f>
+        <v>28907.08705360267</v>
+      </c>
+      <c r="I3" s="136">
+        <f t="shared" si="0"/>
+        <v>4904.545952009631</v>
+      </c>
+      <c r="J3" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22612433892696462</v>
+      </c>
+      <c r="K3" s="135">
+        <f t="shared" ref="K3:K15" si="3">H3-I3</f>
+        <v>24002.54110159304</v>
+      </c>
+      <c r="L3" s="134"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="80">
+        <v>4255.46</v>
+      </c>
+      <c r="C4" s="134"/>
+      <c r="D4" s="14">
+        <v>6819.1850668787474</v>
+      </c>
+      <c r="E4" s="14">
+        <v>10659.388878281985</v>
+      </c>
+      <c r="F4" s="14">
+        <v>7611.83654000962</v>
+      </c>
+      <c r="G4" s="14">
+        <v>4888.9951900750057</v>
+      </c>
+      <c r="H4" s="135">
+        <f t="shared" si="2"/>
+        <v>29979.405675245358</v>
+      </c>
+      <c r="I4" s="136">
+        <f t="shared" si="0"/>
+        <v>5018.6051601959016</v>
+      </c>
+      <c r="J4" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22746231665658054</v>
+      </c>
+      <c r="K4" s="135">
+        <f t="shared" si="3"/>
+        <v>24960.800515049457</v>
+      </c>
+      <c r="L4" s="134"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="80">
+        <v>4332.8319999999994</v>
+      </c>
+      <c r="C5" s="134"/>
+      <c r="D5" s="14">
+        <v>7113.9910329331351</v>
+      </c>
+      <c r="E5" s="14">
+        <v>10965.744421865054</v>
+      </c>
+      <c r="F5" s="14">
+        <v>7882.2731887994996</v>
+      </c>
+      <c r="G5" s="14">
+        <v>5131.2027462583246</v>
+      </c>
+      <c r="H5" s="135">
+        <f t="shared" si="2"/>
+        <v>31093.211389856013</v>
+      </c>
+      <c r="I5" s="136">
+        <f t="shared" si="0"/>
+        <v>5109.8525267449168</v>
+      </c>
+      <c r="J5" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22879563463985053</v>
+      </c>
+      <c r="K5" s="135">
+        <f t="shared" si="3"/>
+        <v>25983.358863111098</v>
+      </c>
+      <c r="L5" s="134"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="80">
+        <v>4410.2039999999997</v>
+      </c>
+      <c r="C6" s="134"/>
+      <c r="D6" s="14">
+        <v>7335.6628394612235</v>
+      </c>
+      <c r="E6" s="14">
+        <v>11362.840366017535</v>
+      </c>
+      <c r="F6" s="14">
+        <v>8137.0869568293947</v>
+      </c>
+      <c r="G6" s="14">
+        <v>5358.3640113682632</v>
+      </c>
+      <c r="H6" s="135">
+        <f t="shared" si="2"/>
+        <v>32193.954173676415</v>
+      </c>
+      <c r="I6" s="136">
+        <f t="shared" si="0"/>
+        <v>5201.0998932939337</v>
+      </c>
+      <c r="J6" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22785839850201667</v>
+      </c>
+      <c r="K6" s="135">
+        <f t="shared" si="3"/>
+        <v>26992.854280382482</v>
+      </c>
+      <c r="L6" s="134"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="80">
+        <v>4506.9189999999999</v>
+      </c>
+      <c r="C7" s="134"/>
+      <c r="D7" s="14">
+        <v>7564.2419346802799</v>
+      </c>
+      <c r="E7" s="14">
+        <v>11774.316108093079</v>
+      </c>
+      <c r="F7" s="14">
+        <v>8400.1382034168528</v>
+      </c>
+      <c r="G7" s="14">
+        <v>5595.5818349340097</v>
+      </c>
+      <c r="H7" s="135">
+        <f t="shared" si="2"/>
+        <v>33334.278081124219</v>
+      </c>
+      <c r="I7" s="136">
+        <f t="shared" si="0"/>
+        <v>5315.1591014802043</v>
+      </c>
+      <c r="J7" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22692082655192067</v>
+      </c>
+      <c r="K7" s="135">
+        <f t="shared" si="3"/>
+        <v>28019.118979644016</v>
+      </c>
+      <c r="L7" s="134"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="80">
+        <v>4603.634</v>
+      </c>
+      <c r="C8" s="134"/>
+      <c r="D8" s="14">
+        <v>7799.9435495563321</v>
+      </c>
+      <c r="E8" s="14">
+        <v>12200.692375113333</v>
+      </c>
+      <c r="F8" s="14">
+        <v>8671.6932252126044</v>
+      </c>
+      <c r="G8" s="14">
+        <v>5843.3014265203465</v>
+      </c>
+      <c r="H8" s="135">
+        <f t="shared" si="2"/>
+        <v>34515.630576402618</v>
+      </c>
+      <c r="I8" s="136">
+        <f t="shared" si="0"/>
+        <v>5429.2183096664749</v>
+      </c>
+      <c r="J8" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22598293640588846</v>
+      </c>
+      <c r="K8" s="135">
+        <f t="shared" si="3"/>
+        <v>29086.412266736144</v>
+      </c>
+      <c r="L8" s="134"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="80">
+        <v>4681.0059999999994</v>
+      </c>
+      <c r="C9" s="134"/>
+      <c r="D9" s="14">
+        <v>8042.9896216476509</v>
+      </c>
+      <c r="E9" s="14">
+        <v>12642.508750876137</v>
+      </c>
+      <c r="F9" s="14">
+        <v>8952.0269275582177</v>
+      </c>
+      <c r="G9" s="14">
+        <v>6101.9877053728032</v>
+      </c>
+      <c r="H9" s="135">
+        <f t="shared" si="2"/>
+        <v>35739.513005454806</v>
+      </c>
+      <c r="I9" s="136">
+        <f t="shared" si="0"/>
+        <v>5520.4656762154909</v>
+      </c>
+      <c r="J9" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22504474586489401</v>
+      </c>
+      <c r="K9" s="135">
+        <f t="shared" si="3"/>
+        <v>30219.047329239314</v>
+      </c>
+      <c r="L9" s="134"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="80">
+        <v>4797.0639999999994</v>
+      </c>
+      <c r="C10" s="134"/>
+      <c r="D10" s="14">
+        <v>8293.6090040820145</v>
+      </c>
+      <c r="E10" s="14">
+        <v>13100.324358804679</v>
+      </c>
+      <c r="F10" s="14">
+        <v>9241.4231027830974</v>
+      </c>
+      <c r="G10" s="14">
+        <v>6372.1261729764365</v>
+      </c>
+      <c r="H10" s="135">
+        <f t="shared" si="2"/>
+        <v>37007.48263864623</v>
+      </c>
+      <c r="I10" s="136">
+        <f t="shared" si="0"/>
+        <v>5657.336726039016</v>
+      </c>
+      <c r="J10" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22410627291414714</v>
+      </c>
+      <c r="K10" s="135">
+        <f t="shared" si="3"/>
+        <v>31350.145912607215</v>
+      </c>
+      <c r="L10" s="134"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="80">
+        <v>4893.7789999999995</v>
+      </c>
+      <c r="C11" s="134"/>
+      <c r="D11" s="14">
+        <v>8543.3547547239614</v>
+      </c>
+      <c r="E11" s="14">
+        <v>13587.83818452255</v>
+      </c>
+      <c r="F11" s="14">
+        <v>9516.7004653877702</v>
+      </c>
+      <c r="G11" s="14">
+        <v>6607.7205830436706</v>
+      </c>
+      <c r="H11" s="135">
+        <f t="shared" si="2"/>
+        <v>38255.613987677949</v>
+      </c>
+      <c r="I11" s="136">
+        <f t="shared" si="0"/>
+        <v>5771.3959342252856</v>
+      </c>
+      <c r="J11" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22332290255426976</v>
+      </c>
+      <c r="K11" s="135">
+        <f t="shared" si="3"/>
+        <v>32484.218053452663</v>
+      </c>
+      <c r="L11" s="134"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B12" s="80">
+        <v>4990.4939999999997</v>
+      </c>
+      <c r="C12" s="134"/>
+      <c r="D12" s="14">
+        <v>8800.6211082702666</v>
+      </c>
+      <c r="E12" s="14">
+        <v>14093.494288534954</v>
+      </c>
+      <c r="F12" s="14">
+        <v>9800.1776069139123</v>
+      </c>
+      <c r="G12" s="14">
+        <v>6852.0255434905121</v>
+      </c>
+      <c r="H12" s="135">
+        <f t="shared" si="2"/>
+        <v>39546.318547209645</v>
+      </c>
+      <c r="I12" s="136">
+        <f t="shared" si="0"/>
+        <v>5885.4551424115571</v>
+      </c>
+      <c r="J12" s="137">
+        <f t="shared" si="1"/>
+        <v>0.2225395797023243</v>
+      </c>
+      <c r="K12" s="135">
+        <f t="shared" si="3"/>
+        <v>33660.863404798089</v>
+      </c>
+      <c r="L12" s="134"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>2028</v>
+      </c>
+      <c r="B13" s="80">
+        <v>5087.2089999999998</v>
+      </c>
+      <c r="C13" s="134"/>
+      <c r="D13" s="14">
+        <v>9065.6345329106771</v>
+      </c>
+      <c r="E13" s="14">
+        <v>14617.967815308268</v>
+      </c>
+      <c r="F13" s="14">
+        <v>10092.098776920315</v>
+      </c>
+      <c r="G13" s="14">
+        <v>7105.3631064738611</v>
+      </c>
+      <c r="H13" s="135">
+        <f t="shared" si="2"/>
+        <v>40881.06423161312</v>
+      </c>
+      <c r="I13" s="136">
+        <f t="shared" si="0"/>
+        <v>5999.5143505978276</v>
+      </c>
+      <c r="J13" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22175632418835781</v>
+      </c>
+      <c r="K13" s="135">
+        <f t="shared" si="3"/>
+        <v>34881.549881015293</v>
+      </c>
+      <c r="L13" s="134"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>2029</v>
+      </c>
+      <c r="B14" s="80">
+        <v>5203.2669999999998</v>
+      </c>
+      <c r="C14" s="134"/>
+      <c r="D14" s="14">
+        <v>9338.6283164798042</v>
+      </c>
+      <c r="E14" s="14">
+        <v>15161.959034050265</v>
+      </c>
+      <c r="F14" s="14">
+        <v>10392.715500509112</v>
+      </c>
+      <c r="G14" s="14">
+        <v>7368.0672312732722</v>
+      </c>
+      <c r="H14" s="135">
+        <f t="shared" si="2"/>
+        <v>42261.370082312453</v>
+      </c>
+      <c r="I14" s="136">
+        <f t="shared" si="0"/>
+        <v>6136.3854004213517</v>
+      </c>
+      <c r="J14" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22097315582270433</v>
+      </c>
+      <c r="K14" s="135">
+        <f t="shared" si="3"/>
+        <v>36124.984681891103</v>
+      </c>
+      <c r="L14" s="134"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B15" s="80">
+        <v>5299.982</v>
+      </c>
+      <c r="C15" s="134"/>
+      <c r="D15" s="14">
+        <v>9619.8427718173389</v>
+      </c>
+      <c r="E15" s="14">
+        <v>15726.19427369909</v>
+      </c>
+      <c r="F15" s="14">
+        <v>10702.286795044829</v>
+      </c>
+      <c r="G15" s="14">
+        <v>7640.484224528871</v>
+      </c>
+      <c r="H15" s="135">
+        <f t="shared" si="2"/>
+        <v>43688.808065090125</v>
+      </c>
+      <c r="I15" s="136">
+        <f t="shared" si="0"/>
+        <v>6250.4446086076232</v>
+      </c>
+      <c r="J15" s="137">
+        <f t="shared" si="1"/>
+        <v>0.22019009439408688</v>
+      </c>
+      <c r="K15" s="135">
+        <f t="shared" si="3"/>
+        <v>37438.363456482504</v>
+      </c>
+      <c r="L15" s="134"/>
+    </row>
+    <row r="18" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
@@ -26980,341 +27912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D1" s="10">
-        <v>2011</v>
-      </c>
-      <c r="E1" s="10">
-        <v>2012</v>
-      </c>
-      <c r="F1" s="10">
-        <v>2013</v>
-      </c>
-      <c r="G1" s="10">
-        <v>2014</v>
-      </c>
-      <c r="H1" s="10">
-        <v>2015</v>
-      </c>
-      <c r="I1" s="10">
-        <v>2016</v>
-      </c>
-      <c r="J1" s="10">
-        <v>2017</v>
-      </c>
-      <c r="K1" s="10">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>0.10516279069767445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>0.10516279069767445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.15379069767441864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.30086046511627912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.31129767441860468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="97">
-        <f>SUM(Distributions!C10:C11)</f>
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="97">
-        <f>SUM(Distributions!D10:D11)</f>
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="97">
-        <f>SUM(Distributions!E10:E11)</f>
-        <v>7.1500000000000008E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="97">
-        <f>SUM(Distributions!F10:F11)</f>
-        <v>5.2500000000000005E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="97">
-        <f>SUM(Distributions!G10:G11)</f>
-        <v>2.9699999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="97">
-        <f>'Prevalence of anaemia'!C3</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="97">
-        <f>'Prevalence of anaemia'!D3</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="97">
-        <f>'Prevalence of anaemia'!E3</f>
-        <v>0.23939999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="97">
-        <f>'Prevalence of anaemia'!F3</f>
-        <v>0.23939999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="97">
-        <f>'Prevalence of anaemia'!G3</f>
-        <v>0.23939999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="97">
-        <f>'Prevalence of anaemia'!H3</f>
-        <v>0.18228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="97">
-        <f>'Prevalence of anaemia'!I3</f>
-        <v>0.18228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="97">
-        <f>'Prevalence of anaemia'!J3</f>
-        <v>0.18228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="97">
-        <f>'Prevalence of anaemia'!K3</f>
-        <v>0.18228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="97">
-        <f>'Prevalence of anaemia'!L3</f>
-        <v>0.13019999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="97">
-        <f>'Prevalence of anaemia'!M3</f>
-        <v>0.13019999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="97">
-        <f>'Prevalence of anaemia'!N3</f>
-        <v>0.13019999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="97">
-        <f>'Prevalence of anaemia'!O3</f>
-        <v>0.13019999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -27380,11 +27978,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:B52"/>
     </sheetView>
   </sheetViews>
@@ -27729,6 +28327,340 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="10">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.10516279069767445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.10516279069767445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.15379069767441864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.30086046511627912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.31129767441860468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="97">
+        <f>SUM(Distributions!C10:C11)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="97">
+        <f>SUM(Distributions!D10:D11)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="97">
+        <f>SUM(Distributions!E10:E11)</f>
+        <v>7.1500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="97">
+        <f>SUM(Distributions!F10:F11)</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="97">
+        <f>SUM(Distributions!G10:G11)</f>
+        <v>2.9699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="97">
+        <f>'Prevalence of anaemia'!C3</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="97">
+        <f>'Prevalence of anaemia'!D3</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="97">
+        <f>'Prevalence of anaemia'!E3</f>
+        <v>0.23939999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="97">
+        <f>'Prevalence of anaemia'!F3</f>
+        <v>0.23939999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="97">
+        <f>'Prevalence of anaemia'!G3</f>
+        <v>0.23939999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="97">
+        <f>'Prevalence of anaemia'!H3</f>
+        <v>0.18228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="97">
+        <f>'Prevalence of anaemia'!I3</f>
+        <v>0.18228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="97">
+        <f>'Prevalence of anaemia'!J3</f>
+        <v>0.18228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="97">
+        <f>'Prevalence of anaemia'!K3</f>
+        <v>0.18228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="97">
+        <f>'Prevalence of anaemia'!L3</f>
+        <v>0.13019999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="97">
+        <f>'Prevalence of anaemia'!M3</f>
+        <v>0.13019999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="97">
+        <f>'Prevalence of anaemia'!N3</f>
+        <v>0.13019999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="97">
+        <f>'Prevalence of anaemia'!O3</f>
+        <v>0.13019999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
@@ -28653,7 +29585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -28971,7 +29903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -29123,7 +30055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -29488,7 +30420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -29636,577 +30568,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="148">
-        <f>1-D2-E2-F2</f>
-        <v>0.78334883720930237</v>
-      </c>
-      <c r="D2" s="149">
-        <v>0.12611627906976747</v>
-      </c>
-      <c r="E2" s="149">
-        <v>7.5986046511627922E-2</v>
-      </c>
-      <c r="F2" s="149">
-        <v>1.4548837209302327E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="11">
-        <v>1.53</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1.32</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="F6" s="6">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="36">
-        <v>1</v>
-      </c>
-      <c r="D7" s="36">
-        <v>2.52</v>
-      </c>
-      <c r="E7" s="36">
-        <v>1.96</v>
-      </c>
-      <c r="F7" s="36">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-      <c r="D8" s="36">
-        <v>2.52</v>
-      </c>
-      <c r="E8" s="36">
-        <v>1.96</v>
-      </c>
-      <c r="F8" s="36">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="F13" s="5">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="F14" s="5">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E15" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="F15" s="5">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>999.99</v>
-      </c>
-      <c r="F16" s="5">
-        <v>999.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="67">
-        <v>1</v>
-      </c>
-      <c r="D23" s="67">
-        <v>1.52</v>
-      </c>
-      <c r="E23" s="67">
-        <v>1.75</v>
-      </c>
-      <c r="F23" s="67">
-        <v>3.14</v>
-      </c>
-      <c r="G23" s="68"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="67">
-        <v>1</v>
-      </c>
-      <c r="D24" s="67">
-        <v>1.2</v>
-      </c>
-      <c r="E24" s="67">
-        <v>1.4</v>
-      </c>
-      <c r="F24" s="67">
-        <v>1.6</v>
-      </c>
-      <c r="G24" s="68"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="67">
-        <v>1</v>
-      </c>
-      <c r="D25" s="67">
-        <v>1.2</v>
-      </c>
-      <c r="E25" s="67">
-        <v>1.4</v>
-      </c>
-      <c r="F25" s="67">
-        <v>1.6</v>
-      </c>
-      <c r="G25" s="68"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="67">
-        <v>1</v>
-      </c>
-      <c r="D26" s="67">
-        <v>1.52</v>
-      </c>
-      <c r="E26" s="67">
-        <v>1.75</v>
-      </c>
-      <c r="F26" s="67">
-        <v>1.73</v>
-      </c>
-      <c r="G26" s="68"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="67">
-        <v>1</v>
-      </c>
-      <c r="D27" s="67">
-        <v>1</v>
-      </c>
-      <c r="E27" s="67">
-        <v>1</v>
-      </c>
-      <c r="F27" s="67">
-        <v>1</v>
-      </c>
-      <c r="G27" s="68"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="67">
-        <v>1</v>
-      </c>
-      <c r="D28" s="67">
-        <v>1</v>
-      </c>
-      <c r="E28" s="67">
-        <v>1</v>
-      </c>
-      <c r="F28" s="67">
-        <v>1</v>
-      </c>
-      <c r="G28" s="68"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="67">
-        <v>1</v>
-      </c>
-      <c r="D29" s="67">
-        <v>1.52</v>
-      </c>
-      <c r="E29" s="67">
-        <v>1.75</v>
-      </c>
-      <c r="F29" s="67">
-        <v>1.52</v>
-      </c>
-      <c r="G29" s="68"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="C30" s="67">
-        <v>1</v>
-      </c>
-      <c r="D30" s="67">
-        <v>1</v>
-      </c>
-      <c r="E30" s="67">
-        <v>1.33</v>
-      </c>
-      <c r="F30" s="67">
-        <v>1</v>
-      </c>
-      <c r="G30" s="68"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="C31" s="67">
-        <v>1</v>
-      </c>
-      <c r="D31" s="67">
-        <v>1</v>
-      </c>
-      <c r="E31" s="67">
-        <v>1.33</v>
-      </c>
-      <c r="F31" s="67">
-        <v>1</v>
-      </c>
-      <c r="G31" s="68"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="63"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="10"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="68"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="67">
-        <v>1</v>
-      </c>
-      <c r="D35" s="70">
-        <v>1</v>
-      </c>
-      <c r="E35" s="70">
-        <v>1</v>
-      </c>
-      <c r="F35" s="70">
-        <v>1</v>
-      </c>
-      <c r="G35" s="68"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="67">
-        <v>1</v>
-      </c>
-      <c r="D36" s="70">
-        <v>1.41</v>
-      </c>
-      <c r="E36" s="70">
-        <v>1.49</v>
-      </c>
-      <c r="F36" s="70">
-        <v>3.03</v>
-      </c>
-      <c r="G36" s="68"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="67">
-        <v>1</v>
-      </c>
-      <c r="D37" s="70">
-        <v>1.18</v>
-      </c>
-      <c r="E37" s="70">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F37" s="70">
-        <v>1.77</v>
-      </c>
-      <c r="G37" s="68"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="67">
-        <v>1</v>
-      </c>
-      <c r="D38" s="70">
-        <v>1</v>
-      </c>
-      <c r="E38" s="70">
-        <v>1</v>
-      </c>
-      <c r="F38" s="70">
-        <v>1</v>
-      </c>
-      <c r="G38" s="68"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Unguja.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Unguja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D3545574-054E-EF4C-99B0-81A6CCCD780A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8EDD1476-3966-6443-B12B-50FD4DE3B8D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7160" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -6449,13 +6449,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8829,30 +8829,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="157" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="157" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="157"/>
+    <col min="1" max="1" width="17.5" style="156" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="156" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="156"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="155" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="155" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="158"/>
+      <c r="B2" s="159">
+        <v>65000</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="155" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="159"/>
+      <c r="B3" s="157"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13950,7 +13952,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="158" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -13973,7 +13975,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="155"/>
+      <c r="B3" s="158"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -13995,7 +13997,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="155"/>
+      <c r="B4" s="158"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14017,7 +14019,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14040,7 +14042,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="155"/>
+      <c r="B6" s="158"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14061,7 +14063,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="155"/>
+      <c r="B7" s="158"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14082,7 +14084,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="158" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14105,7 +14107,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="155"/>
+      <c r="B9" s="158"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14126,7 +14128,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="155"/>
+      <c r="B10" s="158"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14147,7 +14149,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14170,7 +14172,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="155"/>
+      <c r="B12" s="158"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14191,7 +14193,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="155"/>
+      <c r="B13" s="158"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14212,7 +14214,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14235,7 +14237,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="155"/>
+      <c r="B15" s="158"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14256,7 +14258,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="155"/>
+      <c r="B16" s="158"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14310,7 +14312,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="158" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14333,7 +14335,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="155"/>
+      <c r="B20" s="158"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14354,7 +14356,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="155"/>
+      <c r="B21" s="158"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14375,7 +14377,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="155" t="s">
+      <c r="B22" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14398,7 +14400,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="155"/>
+      <c r="B23" s="158"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14419,7 +14421,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="155"/>
+      <c r="B24" s="158"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14440,7 +14442,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="158" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14463,7 +14465,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="155"/>
+      <c r="B26" s="158"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14484,7 +14486,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="155"/>
+      <c r="B27" s="158"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14505,7 +14507,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14528,7 +14530,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="155"/>
+      <c r="B29" s="158"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14549,7 +14551,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="155"/>
+      <c r="B30" s="158"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14570,7 +14572,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="155" t="s">
+      <c r="B31" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14593,7 +14595,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="155"/>
+      <c r="B32" s="158"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14614,7 +14616,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="155"/>
+      <c r="B33" s="158"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14661,7 +14663,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="155" t="s">
+      <c r="B36" s="158" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14684,7 +14686,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="155"/>
+      <c r="B37" s="158"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14705,7 +14707,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="155"/>
+      <c r="B38" s="158"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14727,7 +14729,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="155" t="s">
+      <c r="B39" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14750,7 +14752,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="155"/>
+      <c r="B40" s="158"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14771,7 +14773,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="155"/>
+      <c r="B41" s="158"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14792,7 +14794,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="155" t="s">
+      <c r="B42" s="158" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14815,7 +14817,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="155"/>
+      <c r="B43" s="158"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14836,7 +14838,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="155"/>
+      <c r="B44" s="158"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14857,7 +14859,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14880,7 +14882,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="155"/>
+      <c r="B46" s="158"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14901,7 +14903,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="155"/>
+      <c r="B47" s="158"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14922,7 +14924,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14945,7 +14947,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="155"/>
+      <c r="B49" s="158"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -14966,7 +14968,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="155"/>
+      <c r="B50" s="158"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15011,6 +15013,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15021,11 +15028,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Unguja.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Unguja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8EDD1476-3966-6443-B12B-50FD4DE3B8D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5307D919-65C3-6043-A855-96F6642DA711}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -6452,10 +6452,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8846,9 +8846,7 @@
       <c r="A2" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="159">
-        <v>65000</v>
-      </c>
+      <c r="B2" s="158"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="155" t="s">
@@ -13952,7 +13950,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="159" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -13975,7 +13973,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="158"/>
+      <c r="B3" s="159"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -13997,7 +13995,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="158"/>
+      <c r="B4" s="159"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14019,7 +14017,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14042,7 +14040,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="158"/>
+      <c r="B6" s="159"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14063,7 +14061,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="158"/>
+      <c r="B7" s="159"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14084,7 +14082,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14107,7 +14105,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="158"/>
+      <c r="B9" s="159"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14128,7 +14126,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="158"/>
+      <c r="B10" s="159"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14149,7 +14147,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="159" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14172,7 +14170,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="158"/>
+      <c r="B12" s="159"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14193,7 +14191,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="158"/>
+      <c r="B13" s="159"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14214,7 +14212,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14237,7 +14235,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="158"/>
+      <c r="B15" s="159"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14258,7 +14256,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="158"/>
+      <c r="B16" s="159"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14312,7 +14310,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="159" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14335,7 +14333,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="158"/>
+      <c r="B20" s="159"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14356,7 +14354,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="158"/>
+      <c r="B21" s="159"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14377,7 +14375,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14400,7 +14398,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="158"/>
+      <c r="B23" s="159"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14421,7 +14419,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="158"/>
+      <c r="B24" s="159"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14442,7 +14440,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="158" t="s">
+      <c r="B25" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14465,7 +14463,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="158"/>
+      <c r="B26" s="159"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14486,7 +14484,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="158"/>
+      <c r="B27" s="159"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14507,7 +14505,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="159" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14530,7 +14528,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="158"/>
+      <c r="B29" s="159"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14551,7 +14549,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="158"/>
+      <c r="B30" s="159"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14572,7 +14570,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14595,7 +14593,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="158"/>
+      <c r="B32" s="159"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14616,7 +14614,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="158"/>
+      <c r="B33" s="159"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14663,7 +14661,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="158" t="s">
+      <c r="B36" s="159" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14686,7 +14684,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="158"/>
+      <c r="B37" s="159"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14707,7 +14705,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="158"/>
+      <c r="B38" s="159"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14729,7 +14727,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="158" t="s">
+      <c r="B39" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14752,7 +14750,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="158"/>
+      <c r="B40" s="159"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14773,7 +14771,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="158"/>
+      <c r="B41" s="159"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14794,7 +14792,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="158" t="s">
+      <c r="B42" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14817,7 +14815,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="158"/>
+      <c r="B43" s="159"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14838,7 +14836,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="158"/>
+      <c r="B44" s="159"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14859,7 +14857,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="158" t="s">
+      <c r="B45" s="159" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14882,7 +14880,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="158"/>
+      <c r="B46" s="159"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14903,7 +14901,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="158"/>
+      <c r="B47" s="159"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14924,7 +14922,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="158" t="s">
+      <c r="B48" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14947,7 +14945,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="158"/>
+      <c r="B49" s="159"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -14968,7 +14966,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="158"/>
+      <c r="B50" s="159"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15013,11 +15011,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15028,6 +15021,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Unguja.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Unguja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5307D919-65C3-6043-A855-96F6642DA711}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0991601E-B67F-D04C-B186-8C18E86D53A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="842" firstSheet="27" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -8823,7 +8823,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -15011,6 +15011,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15021,11 +15026,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -25457,7 +25457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:D52"/>
     </sheetView>
   </sheetViews>
@@ -26819,7 +26819,7 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:C103"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27838,7 +27838,7 @@
       </c>
       <c r="C96" s="24"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
         <v>IYCF 1</v>
@@ -27846,9 +27846,14 @@
       <c r="B97" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="C97" s="24"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="24">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
@@ -27858,7 +27863,7 @@
       </c>
       <c r="C98" s="24"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
         <v>IYCF 2</v>
@@ -27868,7 +27873,7 @@
       </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
@@ -27878,7 +27883,7 @@
       </c>
       <c r="C100" s="24"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
         <v>IYCF 3</v>
@@ -27888,7 +27893,7 @@
       </c>
       <c r="C101" s="24"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="151" t="s">
         <v>271</v>
       </c>
@@ -27897,7 +27902,7 @@
       </c>
       <c r="C102" s="154"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="151" t="s">
         <v>271</v>
       </c>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Unguja.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Kusini_Unguja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0991601E-B67F-D04C-B186-8C18E86D53A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9DD71A44-0CD0-B046-A905-1F3BD8DBFEE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="842" firstSheet="27" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="842" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -15011,11 +15011,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15026,6 +15021,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15261,8 +15261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15376,8 +15376,8 @@
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D8">
-        <v>10.49</v>
+      <c r="D8" s="89">
+        <v>3.78</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -15391,8 +15391,8 @@
         <f t="shared" ref="C9:C12" si="0">1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D9">
-        <v>10.49</v>
+      <c r="D9" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E9">
         <v>0.05</v>
@@ -15406,8 +15406,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D10">
-        <v>10.49</v>
+      <c r="D10" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -15421,8 +15421,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D11">
-        <v>10.49</v>
+      <c r="D11" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -15436,8 +15436,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D12">
-        <v>10.49</v>
+      <c r="D12" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -25457,7 +25457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:D52"/>
     </sheetView>
   </sheetViews>
